--- a/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>QSEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,16 +770,19 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,34 +893,35 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -925,8 +938,11 @@
       <c r="P12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,22 +1097,23 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
@@ -1099,7 +1125,7 @@
         <v>500</v>
       </c>
       <c r="K17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
@@ -1108,16 +1134,19 @@
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>1300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,13 +1154,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
@@ -1143,7 +1172,7 @@
         <v>-500</v>
       </c>
       <c r="K18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="L18" s="3">
         <v>-600</v>
@@ -1152,16 +1181,19 @@
         <v>-600</v>
       </c>
       <c r="N18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-500</v>
       </c>
       <c r="P18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1214,16 +1247,19 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,13 +1267,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-500</v>
       </c>
       <c r="H21" s="3">
         <v>-500</v>
@@ -1249,7 +1285,7 @@
         <v>-500</v>
       </c>
       <c r="K21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="L21" s="3">
         <v>-600</v>
@@ -1258,33 +1294,36 @@
         <v>-600</v>
       </c>
       <c r="N21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-500</v>
       </c>
       <c r="P21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
       </c>
       <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1293,69 +1332,75 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-700</v>
       </c>
       <c r="K23" s="3">
         <v>-700</v>
       </c>
       <c r="L23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-700</v>
       </c>
       <c r="K26" s="3">
         <v>-700</v>
       </c>
       <c r="L26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-700</v>
       </c>
       <c r="K27" s="3">
         <v>-700</v>
       </c>
       <c r="L27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1742,60 +1811,66 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-700</v>
       </c>
       <c r="K33" s="3">
         <v>-700</v>
       </c>
       <c r="L33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-700</v>
       </c>
       <c r="K35" s="3">
         <v>-700</v>
       </c>
       <c r="L35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,43 +2062,46 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
+        <v>200</v>
+      </c>
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,23 +2238,26 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2187,52 +2285,58 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2305,11 +2412,11 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
       </c>
       <c r="L54" s="3">
+        <v>300</v>
+      </c>
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
       <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,69 +2748,73 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
         <v>900</v>
       </c>
       <c r="F58" s="3">
+        <v>900</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
@@ -2690,7 +2823,7 @@
         <v>600</v>
       </c>
       <c r="K58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
@@ -2699,16 +2832,19 @@
         <v>500</v>
       </c>
       <c r="N58" s="3">
+        <v>500</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,52 +2887,58 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2300</v>
       </c>
       <c r="J60" s="3">
         <v>2300</v>
       </c>
       <c r="K60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2300</v>
       </c>
       <c r="J66" s="3">
         <v>2300</v>
       </c>
       <c r="K66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-118800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-117900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-116900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-115500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-113200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-112200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-111600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-110800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-110100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-109400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-108600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-106800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-105300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-104700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-700</v>
       </c>
       <c r="K81" s="3">
         <v>-700</v>
       </c>
       <c r="L81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,22 +4105,25 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-400</v>
       </c>
       <c r="H89" s="3">
         <v>-400</v>
@@ -3916,28 +4132,31 @@
         <v>-400</v>
       </c>
       <c r="J89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-600</v>
       </c>
       <c r="M89" s="3">
         <v>-600</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,13 +4660,16 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
@@ -4427,33 +4678,36 @@
         <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>QSEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,16 +781,22 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,28 +934,28 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,28 +1150,30 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
       </c>
       <c r="F17" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="I17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
@@ -1128,25 +1182,31 @@
         <v>500</v>
       </c>
       <c r="L17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1157,16 +1217,16 @@
         <v>-600</v>
       </c>
       <c r="F18" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="G18" s="3">
         <v>-600</v>
       </c>
       <c r="H18" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="I18" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
@@ -1175,25 +1235,31 @@
         <v>-500</v>
       </c>
       <c r="L18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="M18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="N18" s="3">
         <v>-600</v>
       </c>
       <c r="O18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1250,16 +1318,22 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1270,16 +1344,16 @@
         <v>-600</v>
       </c>
       <c r="F21" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="G21" s="3">
         <v>-600</v>
       </c>
       <c r="H21" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="I21" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J21" s="3">
         <v>-500</v>
@@ -1288,119 +1362,137 @@
         <v>-500</v>
       </c>
       <c r="L21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="M21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="N21" s="3">
         <v>-600</v>
       </c>
       <c r="O21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1700</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-800</v>
       </c>
       <c r="K23" s="3">
         <v>-700</v>
       </c>
       <c r="L23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-800</v>
       </c>
       <c r="K26" s="3">
         <v>-700</v>
       </c>
       <c r="L26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-800</v>
       </c>
       <c r="K27" s="3">
         <v>-700</v>
       </c>
       <c r="L27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1814,63 +1954,75 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-800</v>
       </c>
       <c r="K33" s="3">
         <v>-700</v>
       </c>
       <c r="L33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-800</v>
       </c>
       <c r="K35" s="3">
         <v>-700</v>
       </c>
       <c r="L35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2250,20 +2448,20 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2288,55 +2486,67 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2415,22 +2631,28 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>600</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
       </c>
       <c r="L54" s="3">
+        <v>600</v>
+      </c>
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
+        <v>300</v>
+      </c>
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,25 +3009,27 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1600</v>
       </c>
       <c r="G57" s="3">
         <v>1700</v>
       </c>
       <c r="H57" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="I57" s="3">
         <v>1700</v>
@@ -2779,72 +3041,84 @@
         <v>1700</v>
       </c>
       <c r="L57" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M57" s="3">
         <v>1700</v>
       </c>
       <c r="N57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>900</v>
       </c>
       <c r="I58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J58" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
       </c>
       <c r="L58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
       </c>
       <c r="O58" s="3">
+        <v>500</v>
+      </c>
+      <c r="P58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2890,55 +3164,67 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2700</v>
       </c>
       <c r="I60" s="3">
         <v>2400</v>
       </c>
       <c r="J60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2700</v>
       </c>
       <c r="I66" s="3">
         <v>2400</v>
       </c>
       <c r="J66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-119600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-118800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-117900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-116900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-115500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-113200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-112200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-111600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-110800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-110100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-109400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-108600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-106800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-105300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-104700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1000</v>
       </c>
       <c r="H76" s="3">
         <v>-1500</v>
       </c>
       <c r="I76" s="3">
-        <v>-2000</v>
+        <v>-1000</v>
       </c>
       <c r="J76" s="3">
-        <v>-1800</v>
+        <v>-1500</v>
       </c>
       <c r="K76" s="3">
         <v>-2000</v>
       </c>
       <c r="L76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-2300</v>
       </c>
       <c r="P76" s="3">
         <v>-1400</v>
       </c>
       <c r="Q76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-800</v>
       </c>
       <c r="K81" s="3">
         <v>-700</v>
       </c>
       <c r="L81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-400</v>
       </c>
       <c r="J89" s="3">
         <v>-400</v>
       </c>
       <c r="K89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-400</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>300</v>
+      </c>
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
       </c>
       <c r="F102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-200</v>
       </c>
       <c r="H102" s="3">
-        <v>900</v>
+        <v>-200</v>
       </c>
       <c r="I102" s="3">
         <v>-200</v>
       </c>
       <c r="J102" s="3">
+        <v>900</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>QSEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -787,16 +791,19 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,43 +935,44 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,31 +1178,32 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
       </c>
       <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
@@ -1188,7 +1215,7 @@
         <v>500</v>
       </c>
       <c r="N17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
@@ -1197,16 +1224,19 @@
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>1300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,19 +1247,19 @@
         <v>-600</v>
       </c>
       <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
@@ -1241,7 +1271,7 @@
         <v>-500</v>
       </c>
       <c r="N18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="O18" s="3">
         <v>-600</v>
@@ -1250,16 +1280,19 @@
         <v>-600</v>
       </c>
       <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-500</v>
       </c>
       <c r="S18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1324,16 +1358,19 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,19 +1381,19 @@
         <v>-600</v>
       </c>
       <c r="F21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-500</v>
       </c>
       <c r="K21" s="3">
         <v>-500</v>
@@ -1368,7 +1405,7 @@
         <v>-500</v>
       </c>
       <c r="N21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="O21" s="3">
         <v>-600</v>
@@ -1377,42 +1414,45 @@
         <v>-600</v>
       </c>
       <c r="Q21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-500</v>
       </c>
       <c r="S21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1421,78 +1461,84 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-800</v>
       </c>
       <c r="F23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-700</v>
       </c>
       <c r="N23" s="3">
         <v>-700</v>
       </c>
       <c r="O23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-800</v>
       </c>
       <c r="F26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-700</v>
       </c>
       <c r="N26" s="3">
         <v>-700</v>
       </c>
       <c r="O26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-800</v>
       </c>
       <c r="F27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-700</v>
       </c>
       <c r="N27" s="3">
         <v>-700</v>
       </c>
       <c r="O27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1960,69 +2030,75 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-800</v>
       </c>
       <c r="F33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-700</v>
       </c>
       <c r="N33" s="3">
         <v>-700</v>
       </c>
       <c r="O33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-800</v>
       </c>
       <c r="F35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-700</v>
       </c>
       <c r="N35" s="3">
         <v>-700</v>
       </c>
       <c r="O35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,52 +2323,55 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>500</v>
       </c>
       <c r="H41" s="3">
+        <v>500</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2454,17 +2553,17 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2492,61 +2591,67 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
       </c>
       <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2637,11 +2745,11 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
       </c>
       <c r="O54" s="3">
+        <v>300</v>
+      </c>
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
       <c r="S54" s="3">
+        <v>200</v>
+      </c>
+      <c r="T54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,87 +3141,91 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>900</v>
       </c>
       <c r="I58" s="3">
+        <v>900</v>
+      </c>
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
@@ -3100,7 +3234,7 @@
         <v>600</v>
       </c>
       <c r="N58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
@@ -3109,16 +3243,19 @@
         <v>500</v>
       </c>
       <c r="Q58" s="3">
+        <v>500</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,61 +3307,67 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2300</v>
       </c>
       <c r="M60" s="3">
         <v>2300</v>
       </c>
       <c r="N60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2300</v>
       </c>
       <c r="M66" s="3">
         <v>2300</v>
       </c>
       <c r="N66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-120800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-120400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-119600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-118800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-117900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-116900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-115500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-113200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-112200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-111600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-110800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-110100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-109400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-108600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-106800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-105300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-104700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-800</v>
       </c>
       <c r="F81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-700</v>
       </c>
       <c r="N81" s="3">
         <v>-700</v>
       </c>
       <c r="O81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,31 +4756,34 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>-400</v>
@@ -4575,28 +4792,31 @@
         <v>-400</v>
       </c>
       <c r="M89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-600</v>
       </c>
       <c r="P89" s="3">
         <v>-600</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,22 +5416,25 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
@@ -5191,33 +5443,36 @@
         <v>-200</v>
       </c>
       <c r="J102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>QSEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,16 +797,19 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,46 +948,47 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,34 +1204,35 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>600</v>
       </c>
       <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
@@ -1218,7 +1244,7 @@
         <v>500</v>
       </c>
       <c r="O17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
@@ -1227,16 +1253,19 @@
         <v>600</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>1300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>500</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,25 +1273,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-600</v>
       </c>
       <c r="G18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-500</v>
       </c>
       <c r="L18" s="3">
         <v>-500</v>
@@ -1274,7 +1303,7 @@
         <v>-500</v>
       </c>
       <c r="O18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="P18" s="3">
         <v>-600</v>
@@ -1283,16 +1312,19 @@
         <v>-600</v>
       </c>
       <c r="R18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-500</v>
       </c>
       <c r="T18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1361,16 +1394,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,25 +1414,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="F21" s="3">
         <v>-600</v>
       </c>
       <c r="G21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-500</v>
       </c>
       <c r="L21" s="3">
         <v>-500</v>
@@ -1408,7 +1444,7 @@
         <v>-500</v>
       </c>
       <c r="O21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="P21" s="3">
         <v>-600</v>
@@ -1417,16 +1453,19 @@
         <v>-600</v>
       </c>
       <c r="R21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-500</v>
       </c>
       <c r="T21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,28 +1473,28 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
       </c>
       <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1464,25 +1503,28 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
       </c>
       <c r="T22" s="3">
+        <v>200</v>
+      </c>
+      <c r="U22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,55 +1532,58 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-800</v>
       </c>
       <c r="G23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-700</v>
       </c>
       <c r="O23" s="3">
         <v>-700</v>
       </c>
       <c r="P23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,55 +1709,58 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-800</v>
       </c>
       <c r="G26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-700</v>
       </c>
       <c r="O26" s="3">
         <v>-700</v>
       </c>
       <c r="P26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,55 +1768,58 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-800</v>
       </c>
       <c r="G27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-700</v>
       </c>
       <c r="O27" s="3">
         <v>-700</v>
       </c>
       <c r="P27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2033,16 +2102,19 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,55 +2122,58 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-800</v>
       </c>
       <c r="G33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-700</v>
       </c>
       <c r="O33" s="3">
         <v>-700</v>
       </c>
       <c r="P33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,116 +2240,122 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-800</v>
       </c>
       <c r="G35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-700</v>
       </c>
       <c r="O35" s="3">
         <v>-700</v>
       </c>
       <c r="P35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2326,52 +2412,55 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
+        <v>500</v>
+      </c>
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,13 +2633,16 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2556,17 +2654,17 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,55 +2704,58 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2748,11 +2855,11 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
-      </c>
-      <c r="R54" s="3">
-        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
       <c r="T54" s="3">
+        <v>200</v>
+      </c>
+      <c r="U54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,28 +3340,28 @@
         <v>1300</v>
       </c>
       <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>900</v>
       </c>
       <c r="I58" s="3">
         <v>900</v>
       </c>
       <c r="J58" s="3">
+        <v>900</v>
+      </c>
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
       </c>
       <c r="M58" s="3">
         <v>600</v>
@@ -3237,7 +3370,7 @@
         <v>600</v>
       </c>
       <c r="O58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P58" s="3">
         <v>500</v>
@@ -3246,16 +3379,19 @@
         <v>500</v>
       </c>
       <c r="R58" s="3">
+        <v>500</v>
+      </c>
+      <c r="S58" s="3">
         <v>400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,64 +3446,70 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2300</v>
       </c>
       <c r="N60" s="3">
         <v>2300</v>
       </c>
       <c r="O60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2300</v>
       </c>
       <c r="N66" s="3">
         <v>2300</v>
       </c>
       <c r="O66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-120800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-120400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-119600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-118800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-117900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-116900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-115500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-113200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-112200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-111600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-110800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-110100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-109400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-108600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-106800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-105300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-104700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,55 +4548,58 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-800</v>
       </c>
       <c r="G81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-700</v>
       </c>
       <c r="O81" s="3">
         <v>-700</v>
       </c>
       <c r="P81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,25 +4984,25 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-400</v>
@@ -4795,28 +5011,31 @@
         <v>-400</v>
       </c>
       <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-600</v>
       </c>
       <c r="Q89" s="3">
         <v>-600</v>
       </c>
       <c r="R89" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,25 +5667,28 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-200</v>
       </c>
       <c r="F102" s="3">
         <v>-200</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>-200</v>
@@ -5446,33 +5697,36 @@
         <v>-200</v>
       </c>
       <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>QSEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,104 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -800,16 +812,25 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +888,17 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +956,17 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,31 +988,34 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>400</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
@@ -982,22 +1024,22 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>400</v>
+      </c>
+      <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
@@ -1008,8 +1050,17 @@
       <c r="U12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1118,17 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1186,17 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1254,17 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1283,79 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
+        <v>800</v>
+      </c>
+      <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
+        <v>500</v>
+      </c>
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,58 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-800</v>
       </c>
       <c r="I18" s="3">
         <v>-600</v>
       </c>
       <c r="J18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-500</v>
       </c>
       <c r="O18" s="3">
         <v>-500</v>
       </c>
       <c r="P18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1445,11 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1397,16 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,58 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-800</v>
       </c>
       <c r="I21" s="3">
         <v>-600</v>
       </c>
       <c r="J21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-500</v>
       </c>
       <c r="O21" s="3">
         <v>-500</v>
       </c>
       <c r="P21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1476,93 +1596,102 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O22" s="3">
+        <v>400</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
       </c>
       <c r="R22" s="3">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
       </c>
       <c r="U22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V22" s="3">
+        <v>200</v>
+      </c>
+      <c r="W22" s="3">
+        <v>200</v>
+      </c>
+      <c r="X22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-700</v>
       </c>
       <c r="P23" s="3">
         <v>-700</v>
@@ -1571,19 +1700,28 @@
         <v>-800</v>
       </c>
       <c r="R23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1779,17 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,46 +1847,55 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-700</v>
       </c>
       <c r="P26" s="3">
         <v>-700</v>
@@ -1748,57 +1904,66 @@
         <v>-800</v>
       </c>
       <c r="R26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-700</v>
       </c>
       <c r="P27" s="3">
         <v>-700</v>
@@ -1807,19 +1972,28 @@
         <v>-800</v>
       </c>
       <c r="R27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +2051,17 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2119,17 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2187,17 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2255,17 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2105,54 +2315,63 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-700</v>
       </c>
       <c r="P33" s="3">
         <v>-700</v>
@@ -2161,19 +2380,28 @@
         <v>-800</v>
       </c>
       <c r="R33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,46 +2459,55 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-700</v>
       </c>
       <c r="P35" s="3">
         <v>-700</v>
@@ -2279,83 +2516,101 @@
         <v>-800</v>
       </c>
       <c r="R35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2632,11 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2658,11 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2409,58 +2670,67 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2788,17 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2856,17 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2924,17 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2648,32 +2945,32 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2695,8 +2992,17 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2704,58 +3010,67 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>600</v>
-      </c>
-      <c r="R46" s="3">
-        <v>900</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>600</v>
+      </c>
+      <c r="U46" s="3">
+        <v>900</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,16 +3128,25 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2858,22 +3182,31 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3264,17 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3332,17 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,19 +3400,28 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3108,8 +3468,17 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3536,85 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>600</v>
-      </c>
-      <c r="O54" s="3">
-        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
       </c>
       <c r="Q54" s="3">
+        <v>600</v>
+      </c>
+      <c r="R54" s="3">
+        <v>300</v>
+      </c>
+      <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3636,11 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,126 +3662,147 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="X57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>1100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>900</v>
       </c>
       <c r="M58" s="3">
+        <v>900</v>
+      </c>
+      <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3">
+        <v>900</v>
+      </c>
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3401,20 +3812,20 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3449,67 +3860,85 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2100</v>
       </c>
       <c r="R60" s="3">
         <v>2300</v>
       </c>
       <c r="S60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,31 +3996,40 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3626,8 +4064,17 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +4132,17 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4200,17 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4268,85 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2100</v>
       </c>
       <c r="R66" s="3">
         <v>2300</v>
       </c>
       <c r="S66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V66" s="3">
         <v>2500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4368,11 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4430,17 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4498,17 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4566,17 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4634,85 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-122300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-121800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-121500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-121200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-120800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-120400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-119600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-118800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-117900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-116900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-115500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-113200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-112200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-111600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-110800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-110100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-109400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-108600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-106800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-105300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-104700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4770,17 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4838,17 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4906,85 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-2300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,110 +5042,128 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-700</v>
       </c>
       <c r="P81" s="3">
         <v>-700</v>
@@ -4587,19 +5172,28 @@
         <v>-800</v>
       </c>
       <c r="R81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5215,11 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +5277,17 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5345,17 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5413,17 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5481,17 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5549,17 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5617,85 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
-      </c>
       <c r="H89" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-500</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-400</v>
       </c>
       <c r="Q89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5717,11 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5779,17 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5847,17 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5915,17 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5983,17 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +6015,11 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +6077,17 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +6145,17 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +6213,17 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +6281,85 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>300</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>400</v>
+      </c>
+      <c r="L100" s="3">
+        <v>300</v>
+      </c>
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,25 +6417,34 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>-200</v>
@@ -5697,36 +6453,45 @@
         <v>-200</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>900</v>
       </c>
       <c r="M102" s="3">
         <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
+        <v>900</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>QSEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -821,16 +824,19 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,58 +1003,59 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,46 +1311,47 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
@@ -1337,7 +1363,7 @@
         <v>500</v>
       </c>
       <c r="S17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T17" s="3">
         <v>600</v>
@@ -1346,16 +1372,19 @@
         <v>600</v>
       </c>
       <c r="V17" s="3">
+        <v>600</v>
+      </c>
+      <c r="W17" s="3">
         <v>1300</v>
-      </c>
-      <c r="W17" s="3">
-        <v>500</v>
       </c>
       <c r="X17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,37 +1392,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-600</v>
       </c>
       <c r="J18" s="3">
         <v>-600</v>
       </c>
       <c r="K18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-500</v>
       </c>
       <c r="P18" s="3">
         <v>-500</v>
@@ -1405,7 +1434,7 @@
         <v>-500</v>
       </c>
       <c r="S18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="T18" s="3">
         <v>-600</v>
@@ -1414,16 +1443,19 @@
         <v>-600</v>
       </c>
       <c r="V18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-500</v>
       </c>
       <c r="X18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1508,16 +1541,19 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,37 +1561,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
       </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-600</v>
       </c>
       <c r="J21" s="3">
         <v>-600</v>
       </c>
       <c r="K21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-500</v>
       </c>
       <c r="P21" s="3">
         <v>-500</v>
@@ -1567,7 +1603,7 @@
         <v>-500</v>
       </c>
       <c r="S21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="T21" s="3">
         <v>-600</v>
@@ -1576,21 +1612,24 @@
         <v>-600</v>
       </c>
       <c r="V21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-500</v>
       </c>
       <c r="X21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>100</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1605,28 +1644,28 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1635,36 +1674,39 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
       </c>
       <c r="X22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
@@ -1673,55 +1715,58 @@
         <v>-400</v>
       </c>
       <c r="I23" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-800</v>
       </c>
       <c r="K23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-700</v>
       </c>
       <c r="S23" s="3">
         <v>-700</v>
       </c>
       <c r="T23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,19 +1904,22 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
@@ -1877,66 +1928,69 @@
         <v>-400</v>
       </c>
       <c r="I26" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-800</v>
       </c>
       <c r="K26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-700</v>
       </c>
       <c r="S26" s="3">
         <v>-700</v>
       </c>
       <c r="T26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
@@ -1945,55 +1999,58 @@
         <v>-400</v>
       </c>
       <c r="I27" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-800</v>
       </c>
       <c r="K27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-700</v>
       </c>
       <c r="S27" s="3">
         <v>-700</v>
       </c>
       <c r="T27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2324,27 +2393,30 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
@@ -2353,55 +2425,58 @@
         <v>-400</v>
       </c>
       <c r="I33" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-800</v>
       </c>
       <c r="K33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-700</v>
       </c>
       <c r="S33" s="3">
         <v>-700</v>
       </c>
       <c r="T33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,19 +2543,22 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
@@ -2489,128 +2567,134 @@
         <v>-400</v>
       </c>
       <c r="I35" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-800</v>
       </c>
       <c r="K35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-700</v>
       </c>
       <c r="S35" s="3">
         <v>-700</v>
       </c>
       <c r="T35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2670,10 +2756,10 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2685,52 +2771,55 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
       <c r="M41" s="3">
+        <v>500</v>
+      </c>
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
-      </c>
-      <c r="R41" s="3">
-        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
       </c>
       <c r="T41" s="3">
+        <v>200</v>
+      </c>
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
-      </c>
-      <c r="V41" s="3">
-        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2963,17 +3061,17 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,10 +3111,10 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -3022,55 +3123,58 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
-      </c>
-      <c r="V46" s="3">
-        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
       </c>
       <c r="X46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3149,7 +3256,7 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3191,11 +3298,11 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3423,8 +3542,8 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3554,67 +3679,70 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
-      </c>
-      <c r="R54" s="3">
-        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1000</v>
-      </c>
-      <c r="V54" s="3">
-        <v>200</v>
       </c>
       <c r="W54" s="3">
         <v>200</v>
       </c>
       <c r="X54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,117 +3794,121 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1300</v>
       </c>
       <c r="H58" s="3">
         <v>1300</v>
       </c>
       <c r="I58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>900</v>
       </c>
       <c r="M58" s="3">
         <v>900</v>
       </c>
       <c r="N58" s="3">
+        <v>900</v>
+      </c>
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
-      </c>
-      <c r="P58" s="3">
-        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
@@ -3784,7 +3917,7 @@
         <v>600</v>
       </c>
       <c r="S58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T58" s="3">
         <v>500</v>
@@ -3793,16 +3926,19 @@
         <v>500</v>
       </c>
       <c r="V58" s="3">
+        <v>500</v>
+      </c>
+      <c r="W58" s="3">
         <v>400</v>
-      </c>
-      <c r="W58" s="3">
-        <v>300</v>
       </c>
       <c r="X58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3812,8 +3948,8 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -3827,8 +3963,8 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3869,76 +4005,82 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2300</v>
       </c>
       <c r="R60" s="3">
         <v>2300</v>
       </c>
       <c r="S60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4016,8 +4161,8 @@
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -4031,8 +4176,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2300</v>
       </c>
       <c r="R66" s="3">
         <v>2300</v>
       </c>
       <c r="S66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-122600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-122300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-121800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-121500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-121200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-120800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-120400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-119600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-118800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-117900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-116900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-115500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-113200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-112200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-111600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-110800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-110100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-109400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-108600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-106800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-105300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-104700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-3800</v>
       </c>
       <c r="F76" s="3">
         <v>-3800</v>
       </c>
       <c r="G76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H76" s="3">
         <v>-3500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,92 +5239,98 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
@@ -5145,55 +5339,58 @@
         <v>-400</v>
       </c>
       <c r="I81" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-800</v>
       </c>
       <c r="K81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-700</v>
       </c>
       <c r="S81" s="3">
         <v>-700</v>
       </c>
       <c r="T81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5638,7 +5854,7 @@
         <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -5647,25 +5863,25 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-400</v>
       </c>
       <c r="P89" s="3">
         <v>-400</v>
@@ -5674,28 +5890,31 @@
         <v>-400</v>
       </c>
       <c r="R89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-600</v>
       </c>
       <c r="U89" s="3">
         <v>-600</v>
       </c>
       <c r="V89" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="W89" s="3">
         <v>-200</v>
       </c>
       <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,67 +6544,70 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,37 +6674,40 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-200</v>
       </c>
       <c r="J102" s="3">
         <v>-200</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-200</v>
@@ -6465,33 +6716,36 @@
         <v>-200</v>
       </c>
       <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>QSEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -827,16 +835,22 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>100</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,31 +1030,33 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -1040,28 +1068,28 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,20 +1197,20 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,52 +1364,54 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
       </c>
       <c r="P17" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="Q17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>500</v>
@@ -1366,25 +1420,31 @@
         <v>500</v>
       </c>
       <c r="T17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V17" s="3">
         <v>600</v>
       </c>
       <c r="W17" s="3">
+        <v>600</v>
+      </c>
+      <c r="X17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,43 +1452,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-800</v>
       </c>
       <c r="M18" s="3">
         <v>-600</v>
       </c>
       <c r="N18" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="O18" s="3">
         <v>-600</v>
       </c>
       <c r="P18" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="R18" s="3">
         <v>-500</v>
@@ -1437,25 +1497,31 @@
         <v>-500</v>
       </c>
       <c r="T18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="U18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="V18" s="3">
         <v>-600</v>
       </c>
       <c r="W18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-1200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1493,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1544,16 +1612,22 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,43 +1635,43 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-800</v>
       </c>
       <c r="M21" s="3">
         <v>-600</v>
       </c>
       <c r="N21" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="O21" s="3">
         <v>-600</v>
       </c>
       <c r="P21" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="Q21" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="R21" s="3">
         <v>-500</v>
@@ -1606,36 +1680,42 @@
         <v>-500</v>
       </c>
       <c r="T21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="U21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="V21" s="3">
         <v>-600</v>
       </c>
       <c r="W21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-1300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1647,126 +1727,138 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1700</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
       </c>
       <c r="V22" s="3">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
       </c>
       <c r="X22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-500</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
       </c>
       <c r="G23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
       </c>
       <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-800</v>
       </c>
       <c r="S23" s="3">
         <v>-700</v>
       </c>
       <c r="T23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-500</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
       </c>
       <c r="G26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
       </c>
       <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-800</v>
       </c>
       <c r="S26" s="3">
         <v>-700</v>
       </c>
       <c r="T26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-500</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
       </c>
       <c r="G27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
       </c>
       <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-800</v>
       </c>
       <c r="S27" s="3">
         <v>-700</v>
       </c>
       <c r="T27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2345,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2396,87 +2536,99 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-500</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
       </c>
       <c r="G33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
       </c>
       <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-800</v>
       </c>
       <c r="S33" s="3">
         <v>-700</v>
       </c>
       <c r="T33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-500</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
       </c>
       <c r="G35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
       </c>
       <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-800</v>
       </c>
       <c r="S35" s="3">
         <v>-700</v>
       </c>
       <c r="T35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2919,10 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2759,13 +2933,13 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2774,52 +2948,58 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3043,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -3064,20 +3262,20 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
@@ -3102,8 +3300,14 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3114,67 +3318,73 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,25 +3454,31 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3301,22 +3517,28 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
       <c r="X48" s="3">
         <v>0</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,22 +3762,28 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
-      </c>
-      <c r="R54" s="3">
-        <v>600</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>600</v>
+      </c>
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
+        <v>300</v>
+      </c>
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,49 +4055,51 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1600</v>
       </c>
       <c r="O57" s="3">
         <v>1700</v>
       </c>
       <c r="P57" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="Q57" s="3">
         <v>1700</v>
@@ -3849,25 +4111,31 @@
         <v>1700</v>
       </c>
       <c r="T57" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="U57" s="3">
         <v>1700</v>
       </c>
       <c r="V57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X57" s="3">
         <v>1800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3875,70 +4143,76 @@
         <v>1700</v>
       </c>
       <c r="E58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>900</v>
-      </c>
-      <c r="O58" s="3">
-        <v>700</v>
       </c>
       <c r="P58" s="3">
         <v>900</v>
       </c>
       <c r="Q58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R58" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="S58" s="3">
         <v>600</v>
       </c>
       <c r="T58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V58" s="3">
         <v>500</v>
       </c>
       <c r="W58" s="3">
+        <v>500</v>
+      </c>
+      <c r="X58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3951,11 +4225,11 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
@@ -3966,11 +4240,11 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -4008,79 +4282,91 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2700</v>
       </c>
       <c r="Q60" s="3">
         <v>2400</v>
       </c>
       <c r="R60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4164,11 +4456,11 @@
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -4179,11 +4471,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2700</v>
       </c>
       <c r="Q66" s="3">
         <v>2400</v>
       </c>
       <c r="R66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-122900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-122600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-122300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-121800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-121500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-121200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-120800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-120400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-119600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-118800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-117900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-116900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-115500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-113200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-112200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-111600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-110800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-110100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-109400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-108600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-106800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-105300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-104700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1000</v>
       </c>
       <c r="P76" s="3">
         <v>-1500</v>
       </c>
       <c r="Q76" s="3">
-        <v>-2000</v>
+        <v>-1000</v>
       </c>
       <c r="R76" s="3">
-        <v>-1800</v>
+        <v>-1500</v>
       </c>
       <c r="S76" s="3">
         <v>-2000</v>
       </c>
       <c r="T76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="V76" s="3">
         <v>-1900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-2300</v>
       </c>
       <c r="X76" s="3">
         <v>-1400</v>
       </c>
       <c r="Y76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-500</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
       </c>
       <c r="G81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
       </c>
       <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-800</v>
       </c>
       <c r="S81" s="3">
         <v>-700</v>
       </c>
       <c r="T81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-400</v>
       </c>
       <c r="R89" s="3">
         <v>-400</v>
       </c>
       <c r="S89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T89" s="3">
         <v>-400</v>
       </c>
       <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
-      </c>
-      <c r="S100" s="3">
-        <v>300</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>300</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>300</v>
+      </c>
+      <c r="X100" s="3">
         <v>1300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6689,63 +7193,69 @@
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-200</v>
       </c>
       <c r="N102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
       </c>
       <c r="P102" s="3">
-        <v>900</v>
+        <v>-200</v>
       </c>
       <c r="Q102" s="3">
         <v>-200</v>
       </c>
       <c r="R102" s="3">
+        <v>900</v>
+      </c>
+      <c r="S102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>QSEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -841,16 +845,19 @@
         <v>0</v>
       </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>100</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,67 +1045,68 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
       <c r="V12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3">
         <v>100</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,8 +1217,8 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1212,8 +1232,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,55 +1392,56 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>500</v>
@@ -1426,7 +1453,7 @@
         <v>500</v>
       </c>
       <c r="V17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W17" s="3">
         <v>600</v>
@@ -1435,16 +1462,19 @@
         <v>600</v>
       </c>
       <c r="Y17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1300</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>500</v>
       </c>
       <c r="AA17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,46 +1482,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-600</v>
       </c>
       <c r="M18" s="3">
         <v>-600</v>
       </c>
       <c r="N18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-500</v>
       </c>
       <c r="S18" s="3">
         <v>-500</v>
@@ -1503,7 +1533,7 @@
         <v>-500</v>
       </c>
       <c r="V18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="W18" s="3">
         <v>-600</v>
@@ -1512,16 +1542,19 @@
         <v>-600</v>
       </c>
       <c r="Y18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-500</v>
       </c>
       <c r="AA18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,11 +1595,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1618,16 +1652,19 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,46 +1672,46 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-600</v>
       </c>
       <c r="M21" s="3">
         <v>-600</v>
       </c>
       <c r="N21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-500</v>
       </c>
       <c r="S21" s="3">
         <v>-500</v>
@@ -1686,7 +1723,7 @@
         <v>-500</v>
       </c>
       <c r="V21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="W21" s="3">
         <v>-600</v>
@@ -1695,16 +1732,19 @@
         <v>-600</v>
       </c>
       <c r="Y21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-500</v>
       </c>
       <c r="AA21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1714,11 +1754,11 @@
       <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1733,28 +1773,28 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
+        <v>400</v>
+      </c>
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
-      </c>
-      <c r="S22" s="3">
-        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
@@ -1763,45 +1803,48 @@
         <v>200</v>
       </c>
       <c r="V22" s="3">
+        <v>200</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>200</v>
       </c>
       <c r="Z22" s="3">
         <v>200</v>
       </c>
       <c r="AA22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
       </c>
       <c r="G23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
@@ -1810,55 +1853,58 @@
         <v>-400</v>
       </c>
       <c r="L23" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="M23" s="3">
         <v>-800</v>
       </c>
       <c r="N23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-700</v>
       </c>
       <c r="V23" s="3">
         <v>-700</v>
       </c>
       <c r="W23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,28 +2060,31 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
       </c>
       <c r="G26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-400</v>
@@ -2041,75 +2093,78 @@
         <v>-400</v>
       </c>
       <c r="L26" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="M26" s="3">
         <v>-800</v>
       </c>
       <c r="N26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-700</v>
       </c>
       <c r="V26" s="3">
         <v>-700</v>
       </c>
       <c r="W26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
       </c>
       <c r="G27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
@@ -2118,55 +2173,58 @@
         <v>-400</v>
       </c>
       <c r="L27" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="M27" s="3">
         <v>-800</v>
       </c>
       <c r="N27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-700</v>
       </c>
       <c r="V27" s="3">
         <v>-700</v>
       </c>
       <c r="W27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2485,11 +2555,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2542,36 +2612,39 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
       </c>
       <c r="G33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
@@ -2580,55 +2653,58 @@
         <v>-400</v>
       </c>
       <c r="L33" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="M33" s="3">
         <v>-800</v>
       </c>
       <c r="N33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-700</v>
       </c>
       <c r="V33" s="3">
         <v>-700</v>
       </c>
       <c r="W33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,28 +2780,31 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
       </c>
       <c r="G35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
@@ -2734,137 +2813,143 @@
         <v>-400</v>
       </c>
       <c r="L35" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="M35" s="3">
         <v>-800</v>
       </c>
       <c r="N35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-700</v>
       </c>
       <c r="V35" s="3">
         <v>-700</v>
       </c>
       <c r="W35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,13 +3007,14 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2939,10 +3026,10 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2954,52 +3041,55 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>500</v>
       </c>
       <c r="O41" s="3">
         <v>500</v>
       </c>
       <c r="P41" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
-      </c>
-      <c r="U41" s="3">
-        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
       <c r="W41" s="3">
+        <v>200</v>
+      </c>
+      <c r="X41" s="3">
         <v>600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>900</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>100</v>
       </c>
       <c r="Z41" s="3">
         <v>100</v>
       </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3247,16 +3346,16 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3268,17 +3367,17 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
@@ -3306,13 +3405,16 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3324,10 +3426,10 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -3336,55 +3438,58 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
-      </c>
-      <c r="U46" s="3">
-        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>900</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>200</v>
       </c>
       <c r="Z46" s="3">
         <v>200</v>
       </c>
       <c r="AA46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3472,7 +3580,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -3481,7 +3589,7 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3523,11 +3631,11 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
         <v>100</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
       <c r="Y48" s="3">
         <v>0</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>300</v>
       </c>
       <c r="H54" s="3">
+        <v>300</v>
+      </c>
+      <c r="I54" s="3">
         <v>400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>600</v>
-      </c>
-      <c r="U54" s="3">
-        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
       </c>
       <c r="W54" s="3">
+        <v>300</v>
+      </c>
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>200</v>
       </c>
       <c r="Z54" s="3">
         <v>200</v>
       </c>
       <c r="AA54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,90 +4187,94 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E58" s="3">
         <v>1700</v>
@@ -4149,43 +4283,43 @@
         <v>1700</v>
       </c>
       <c r="G58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1300</v>
       </c>
       <c r="K58" s="3">
         <v>1300</v>
       </c>
       <c r="L58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>900</v>
       </c>
       <c r="P58" s="3">
         <v>900</v>
       </c>
       <c r="Q58" s="3">
+        <v>900</v>
+      </c>
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
-      </c>
-      <c r="S58" s="3">
-        <v>600</v>
       </c>
       <c r="T58" s="3">
         <v>600</v>
@@ -4194,7 +4328,7 @@
         <v>600</v>
       </c>
       <c r="V58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W58" s="3">
         <v>500</v>
@@ -4203,16 +4337,19 @@
         <v>500</v>
       </c>
       <c r="Y58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z58" s="3">
         <v>400</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>300</v>
       </c>
       <c r="AA58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4231,8 +4368,8 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -4246,8 +4383,8 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4288,85 +4425,91 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2300</v>
       </c>
       <c r="U60" s="3">
         <v>2300</v>
       </c>
       <c r="V60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4462,8 +4608,8 @@
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4477,8 +4623,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>2300</v>
       </c>
       <c r="U66" s="3">
         <v>2300</v>
       </c>
       <c r="V66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W66" s="3">
         <v>2200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-123500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-123100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-122900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-122600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-122300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-121800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-121500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-121200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-120800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-120400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-119600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-118800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-117900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-116900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-115500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-113200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-112200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-111600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-110800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-110100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-109400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-108600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-106800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-105300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-104700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-3800</v>
       </c>
       <c r="I76" s="3">
         <v>-3800</v>
       </c>
       <c r="J76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,110 +5815,116 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
       </c>
       <c r="G81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
@@ -5738,55 +5933,58 @@
         <v>-400</v>
       </c>
       <c r="L81" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="M81" s="3">
         <v>-800</v>
       </c>
       <c r="N81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-700</v>
       </c>
       <c r="V81" s="3">
         <v>-700</v>
       </c>
       <c r="W81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,19 +6490,22 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
@@ -6297,7 +6514,7 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -6306,25 +6523,25 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-400</v>
       </c>
       <c r="S89" s="3">
         <v>-400</v>
@@ -6333,28 +6550,31 @@
         <v>-400</v>
       </c>
       <c r="U89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-600</v>
       </c>
       <c r="X89" s="3">
         <v>-600</v>
       </c>
       <c r="Y89" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="Z89" s="3">
         <v>-200</v>
       </c>
       <c r="AA89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,46 +7430,49 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-200</v>
       </c>
       <c r="M102" s="3">
         <v>-200</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-200</v>
@@ -7229,33 +7481,36 @@
         <v>-200</v>
       </c>
       <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>700</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>QSEP</t>
   </si>
@@ -1398,8 +1398,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1828,8 +1828,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -2068,8 +2068,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -2148,8 +2148,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -2628,8 +2628,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -2788,8 +2788,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -5908,8 +5908,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>QSEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -848,16 +855,22 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
         <v>100</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,31 +1082,31 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -1091,28 +1118,28 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
       <c r="W12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="3">
         <v>100</v>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1220,11 +1259,11 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1235,11 +1274,11 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,61 +1444,63 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
       </c>
       <c r="S17" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U17" s="3">
         <v>500</v>
@@ -1456,25 +1509,31 @@
         <v>500</v>
       </c>
       <c r="W17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="X17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y17" s="3">
         <v>600</v>
       </c>
       <c r="Z17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,52 +1541,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-800</v>
       </c>
       <c r="P18" s="3">
         <v>-600</v>
       </c>
       <c r="Q18" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="R18" s="3">
         <v>-600</v>
       </c>
       <c r="S18" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="T18" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="U18" s="3">
         <v>-500</v>
@@ -1536,25 +1595,31 @@
         <v>-500</v>
       </c>
       <c r="W18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="X18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="Y18" s="3">
         <v>-600</v>
       </c>
       <c r="Z18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1598,14 +1665,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1655,16 +1722,22 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,52 +1745,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-800</v>
       </c>
       <c r="P21" s="3">
         <v>-600</v>
       </c>
       <c r="Q21" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="R21" s="3">
         <v>-600</v>
       </c>
       <c r="S21" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="T21" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="U21" s="3">
         <v>-500</v>
@@ -1726,25 +1799,31 @@
         <v>-500</v>
       </c>
       <c r="W21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="X21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="Y21" s="3">
         <v>-600</v>
       </c>
       <c r="Z21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1757,14 +1836,14 @@
       <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1776,135 +1855,147 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1700</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
       </c>
       <c r="T22" s="3">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="U22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
       </c>
       <c r="Y22" s="3">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="3">
         <v>200</v>
       </c>
       <c r="AA22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB22" s="3">
         <v>200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-400</v>
       </c>
       <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-800</v>
       </c>
       <c r="V23" s="3">
         <v>-700</v>
       </c>
       <c r="W23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
       </c>
       <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-800</v>
       </c>
       <c r="V26" s="3">
         <v>-700</v>
       </c>
       <c r="W26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-800</v>
       </c>
       <c r="V27" s="3">
         <v>-700</v>
       </c>
       <c r="W27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2558,14 +2697,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2615,96 +2754,108 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-800</v>
       </c>
       <c r="V33" s="3">
         <v>-700</v>
       </c>
       <c r="W33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-800</v>
       </c>
       <c r="V35" s="3">
         <v>-700</v>
       </c>
       <c r="W35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,19 +3179,21 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -3029,13 +3202,13 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -3044,52 +3217,58 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3349,19 +3546,19 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -3370,20 +3567,20 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
@@ -3408,19 +3605,25 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
-      </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -3429,67 +3632,73 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,34 +3777,40 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3634,22 +3849,28 @@
         <v>0</v>
       </c>
       <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
         <v>100</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
       <c r="AA48" s="3">
         <v>0</v>
       </c>
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
+        <v>400</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>200</v>
+      </c>
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1200</v>
-      </c>
-      <c r="T54" s="3">
-        <v>300</v>
-      </c>
-      <c r="U54" s="3">
-        <v>600</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
       </c>
       <c r="W54" s="3">
+        <v>600</v>
+      </c>
+      <c r="X54" s="3">
         <v>300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z54" s="3">
         <v>700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,13 +4447,15 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
         <v>2900</v>
@@ -4203,43 +4464,43 @@
         <v>2800</v>
       </c>
       <c r="G57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1600</v>
       </c>
       <c r="R57" s="3">
         <v>1700</v>
       </c>
       <c r="S57" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="T57" s="3">
         <v>1700</v>
@@ -4251,25 +4512,31 @@
         <v>1700</v>
       </c>
       <c r="W57" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="X57" s="3">
         <v>1700</v>
       </c>
       <c r="Y57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AA57" s="3">
         <v>1800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>2100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4277,84 +4544,90 @@
         <v>1900</v>
       </c>
       <c r="E58" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="F58" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="G58" s="3">
         <v>1700</v>
       </c>
       <c r="H58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>900</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>700</v>
       </c>
       <c r="S58" s="3">
         <v>900</v>
       </c>
       <c r="T58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="U58" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="V58" s="3">
         <v>600</v>
       </c>
       <c r="W58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Y58" s="3">
         <v>500</v>
       </c>
       <c r="Z58" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB58" s="3">
         <v>400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -4371,11 +4644,11 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -4386,11 +4659,11 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -4428,88 +4701,100 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2700</v>
       </c>
       <c r="T60" s="3">
         <v>2400</v>
       </c>
       <c r="U60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W60" s="3">
         <v>2300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>2500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,16 +4873,22 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>100</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -4611,11 +4902,11 @@
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>100</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -4626,11 +4917,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2700</v>
       </c>
       <c r="T66" s="3">
         <v>2400</v>
       </c>
       <c r="U66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>2500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-124500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-124100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-123500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-123100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-122900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-122600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-122300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-121800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-121500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-121200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-120800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-120400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-119600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-118800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-117900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-116900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-115500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-113200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-112200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-111600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-110800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-110100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-109400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-108600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-106800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-105300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-104700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4400</v>
+        <v>-4800</v>
       </c>
       <c r="E76" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="F76" s="3">
         <v>-4400</v>
       </c>
       <c r="G76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I76" s="3">
         <v>-4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1000</v>
       </c>
       <c r="S76" s="3">
         <v>-1500</v>
       </c>
       <c r="T76" s="3">
-        <v>-2000</v>
+        <v>-1000</v>
       </c>
       <c r="U76" s="3">
-        <v>-1800</v>
+        <v>-1500</v>
       </c>
       <c r="V76" s="3">
         <v>-2000</v>
       </c>
       <c r="W76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-1900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-2300</v>
       </c>
       <c r="AA76" s="3">
         <v>-1400</v>
       </c>
       <c r="AB76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-800</v>
       </c>
       <c r="V81" s="3">
         <v>-700</v>
       </c>
       <c r="W81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-400</v>
       </c>
       <c r="U89" s="3">
         <v>-400</v>
       </c>
       <c r="V89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="W89" s="3">
         <v>-400</v>
       </c>
       <c r="X89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7758,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
-      </c>
-      <c r="V100" s="3">
-        <v>300</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>300</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA100" s="3">
         <v>1300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,19 +7930,25 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -7454,63 +7957,69 @@
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-200</v>
       </c>
       <c r="Q102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-200</v>
       </c>
       <c r="S102" s="3">
-        <v>900</v>
+        <v>-200</v>
       </c>
       <c r="T102" s="3">
         <v>-200</v>
       </c>
       <c r="U102" s="3">
+        <v>900</v>
+      </c>
+      <c r="V102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>700</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>QSEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -861,16 +865,19 @@
         <v>0</v>
       </c>
       <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
         <v>100</v>
       </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,76 +1086,77 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>200</v>
-      </c>
-      <c r="U12" s="3">
-        <v>100</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
       </c>
       <c r="Y12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="3">
         <v>100</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1265,8 +1285,8 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1280,8 +1300,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1455,55 +1482,55 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>500</v>
       </c>
       <c r="V17" s="3">
         <v>500</v>
@@ -1515,7 +1542,7 @@
         <v>500</v>
       </c>
       <c r="Y17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Z17" s="3">
         <v>600</v>
@@ -1524,16 +1551,19 @@
         <v>600</v>
       </c>
       <c r="AB17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC17" s="3">
         <v>1300</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>500</v>
       </c>
       <c r="AD17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,55 +1571,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-600</v>
       </c>
       <c r="P18" s="3">
         <v>-600</v>
       </c>
       <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-500</v>
       </c>
       <c r="V18" s="3">
         <v>-500</v>
@@ -1601,7 +1631,7 @@
         <v>-500</v>
       </c>
       <c r="Y18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="Z18" s="3">
         <v>-600</v>
@@ -1610,16 +1640,19 @@
         <v>-600</v>
       </c>
       <c r="AB18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>-500</v>
       </c>
       <c r="AD18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1671,11 +1705,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1728,16 +1762,19 @@
         <v>0</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1745,55 +1782,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
       </c>
       <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-600</v>
       </c>
       <c r="P21" s="3">
         <v>-600</v>
       </c>
       <c r="Q21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-500</v>
       </c>
       <c r="V21" s="3">
         <v>-500</v>
@@ -1805,7 +1842,7 @@
         <v>-500</v>
       </c>
       <c r="Y21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="Z21" s="3">
         <v>-600</v>
@@ -1814,16 +1851,19 @@
         <v>-600</v>
       </c>
       <c r="AB21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>-500</v>
       </c>
       <c r="AD21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1842,11 +1882,11 @@
       <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1861,28 +1901,28 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>400</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
       </c>
       <c r="T22" s="3">
+        <v>400</v>
+      </c>
+      <c r="U22" s="3">
         <v>1700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
-      </c>
-      <c r="V22" s="3">
-        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
@@ -1891,25 +1931,28 @@
         <v>200</v>
       </c>
       <c r="Y22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1200</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>200</v>
       </c>
       <c r="AC22" s="3">
         <v>200</v>
       </c>
       <c r="AD22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1917,28 +1960,28 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-400</v>
       </c>
       <c r="M23" s="3">
         <v>-400</v>
@@ -1947,55 +1990,58 @@
         <v>-400</v>
       </c>
       <c r="O23" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="P23" s="3">
         <v>-800</v>
       </c>
       <c r="Q23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-700</v>
       </c>
       <c r="Y23" s="3">
         <v>-700</v>
       </c>
       <c r="Z23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2175,28 +2227,28 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-400</v>
       </c>
       <c r="M26" s="3">
         <v>-400</v>
@@ -2205,55 +2257,58 @@
         <v>-400</v>
       </c>
       <c r="O26" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="P26" s="3">
         <v>-800</v>
       </c>
       <c r="Q26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-700</v>
       </c>
       <c r="Y26" s="3">
         <v>-700</v>
       </c>
       <c r="Z26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2261,28 +2316,28 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
       </c>
       <c r="M27" s="3">
         <v>-400</v>
@@ -2291,55 +2346,58 @@
         <v>-400</v>
       </c>
       <c r="O27" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="P27" s="3">
         <v>-800</v>
       </c>
       <c r="Q27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-700</v>
       </c>
       <c r="Y27" s="3">
         <v>-700</v>
       </c>
       <c r="Z27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2703,11 +2773,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2760,16 +2830,19 @@
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2777,28 +2850,28 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
       </c>
       <c r="M33" s="3">
         <v>-400</v>
@@ -2807,55 +2880,58 @@
         <v>-400</v>
       </c>
       <c r="O33" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="P33" s="3">
         <v>-800</v>
       </c>
       <c r="Q33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-700</v>
       </c>
       <c r="Y33" s="3">
         <v>-700</v>
       </c>
       <c r="Z33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2949,28 +3028,28 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
       </c>
       <c r="M35" s="3">
         <v>-400</v>
@@ -2979,146 +3058,152 @@
         <v>-400</v>
       </c>
       <c r="O35" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="P35" s="3">
         <v>-800</v>
       </c>
       <c r="Q35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-700</v>
       </c>
       <c r="Y35" s="3">
         <v>-700</v>
       </c>
       <c r="Z35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3193,10 +3280,10 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -3208,10 +3295,10 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -3223,52 +3310,55 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>500</v>
       </c>
       <c r="R41" s="3">
         <v>500</v>
       </c>
       <c r="S41" s="3">
+        <v>500</v>
+      </c>
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
-      </c>
-      <c r="X41" s="3">
-        <v>200</v>
       </c>
       <c r="Y41" s="3">
         <v>200</v>
       </c>
       <c r="Z41" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA41" s="3">
         <v>600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>900</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>100</v>
       </c>
       <c r="AC41" s="3">
         <v>100</v>
       </c>
       <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3552,16 +3651,16 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3573,17 +3672,17 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
       <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3620,13 +3722,13 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -3638,10 +3740,10 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -3650,55 +3752,58 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
-      </c>
-      <c r="X46" s="3">
-        <v>200</v>
       </c>
       <c r="Y46" s="3">
         <v>200</v>
       </c>
       <c r="Z46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>900</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>200</v>
       </c>
       <c r="AC46" s="3">
         <v>200</v>
       </c>
       <c r="AD46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3795,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3804,7 +3912,7 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -3813,7 +3921,7 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -3855,11 +3963,11 @@
         <v>0</v>
       </c>
       <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
         <v>100</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
       <c r="AB48" s="3">
         <v>0</v>
       </c>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4308,85 +4434,88 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3">
         <v>400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
-      </c>
-      <c r="X54" s="3">
-        <v>300</v>
       </c>
       <c r="Y54" s="3">
         <v>300</v>
       </c>
       <c r="Z54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA54" s="3">
         <v>700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1000</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>200</v>
       </c>
       <c r="AC54" s="3">
         <v>200</v>
       </c>
       <c r="AD54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4458,90 +4589,93 @@
         <v>3000</v>
       </c>
       <c r="E57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E58" s="3">
         <v>1900</v>
@@ -4550,7 +4684,7 @@
         <v>1900</v>
       </c>
       <c r="G58" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="H58" s="3">
         <v>1700</v>
@@ -4559,43 +4693,43 @@
         <v>1700</v>
       </c>
       <c r="J58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1300</v>
       </c>
       <c r="N58" s="3">
         <v>1300</v>
       </c>
       <c r="O58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>900</v>
       </c>
       <c r="S58" s="3">
         <v>900</v>
       </c>
       <c r="T58" s="3">
+        <v>900</v>
+      </c>
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>900</v>
-      </c>
-      <c r="V58" s="3">
-        <v>600</v>
       </c>
       <c r="W58" s="3">
         <v>600</v>
@@ -4604,7 +4738,7 @@
         <v>600</v>
       </c>
       <c r="Y58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Z58" s="3">
         <v>500</v>
@@ -4613,24 +4747,27 @@
         <v>500</v>
       </c>
       <c r="AB58" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC58" s="3">
         <v>400</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>300</v>
       </c>
       <c r="AD58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -4650,8 +4787,8 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
@@ -4665,8 +4802,8 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4707,94 +4844,100 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2400</v>
-      </c>
-      <c r="W60" s="3">
-        <v>2300</v>
       </c>
       <c r="X60" s="3">
         <v>2300</v>
       </c>
       <c r="Y60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Z60" s="3">
         <v>2200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,19 +5022,22 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -4908,8 +5054,8 @@
       <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -4923,8 +5069,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>4800</v>
       </c>
       <c r="F66" s="3">
         <v>4800</v>
       </c>
       <c r="G66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2400</v>
-      </c>
-      <c r="W66" s="3">
-        <v>2300</v>
       </c>
       <c r="X66" s="3">
         <v>2300</v>
       </c>
       <c r="Y66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Z66" s="3">
         <v>2200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-124800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-124500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-124100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-123500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-123100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-122900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-122600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-122300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-121800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-121500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-121200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-120800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-120400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-119600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-118800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-117900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-116900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-115500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-113200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-112200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-111600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-110800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-110100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-109400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-108600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-106800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-105300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-104700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-3800</v>
       </c>
       <c r="L76" s="3">
         <v>-3800</v>
       </c>
       <c r="M76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="N76" s="3">
         <v>-3500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6301,28 +6496,28 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
       </c>
       <c r="M81" s="3">
         <v>-400</v>
@@ -6331,55 +6526,58 @@
         <v>-400</v>
       </c>
       <c r="O81" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="P81" s="3">
         <v>-800</v>
       </c>
       <c r="Q81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-700</v>
       </c>
       <c r="Y81" s="3">
         <v>-700</v>
       </c>
       <c r="Z81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,28 +7140,31 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>-400</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
@@ -6956,7 +7173,7 @@
         <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -6965,25 +7182,25 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-400</v>
       </c>
       <c r="V89" s="3">
         <v>-400</v>
@@ -6992,28 +7209,31 @@
         <v>-400</v>
       </c>
       <c r="X89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-600</v>
       </c>
       <c r="AA89" s="3">
         <v>-600</v>
       </c>
       <c r="AB89" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="AC89" s="3">
         <v>-200</v>
       </c>
       <c r="AD89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7773,85 +8019,88 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7945,46 +8197,46 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-200</v>
       </c>
       <c r="P102" s="3">
         <v>-200</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-200</v>
@@ -7993,33 +8245,36 @@
         <v>-200</v>
       </c>
       <c r="U102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>700</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QSEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>QSEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -868,16 +872,19 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
         <v>100</v>
       </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1096,70 +1110,70 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>200</v>
-      </c>
-      <c r="V12" s="3">
-        <v>100</v>
       </c>
       <c r="W12" s="3">
         <v>100</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
       </c>
       <c r="Z12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="3">
         <v>100</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1308,8 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1303,8 +1323,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1485,55 +1512,55 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
-      </c>
-      <c r="V17" s="3">
-        <v>500</v>
       </c>
       <c r="W17" s="3">
         <v>500</v>
@@ -1545,7 +1572,7 @@
         <v>500</v>
       </c>
       <c r="Z17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AA17" s="3">
         <v>600</v>
@@ -1554,16 +1581,19 @@
         <v>600</v>
       </c>
       <c r="AC17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD17" s="3">
         <v>1300</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>500</v>
       </c>
       <c r="AE17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1574,55 +1604,55 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-600</v>
       </c>
       <c r="Q18" s="3">
         <v>-600</v>
       </c>
       <c r="R18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-500</v>
       </c>
       <c r="W18" s="3">
         <v>-500</v>
@@ -1634,7 +1664,7 @@
         <v>-500</v>
       </c>
       <c r="Z18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="AA18" s="3">
         <v>-600</v>
@@ -1643,16 +1673,19 @@
         <v>-600</v>
       </c>
       <c r="AC18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>-500</v>
       </c>
       <c r="AE18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1708,11 +1742,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1765,16 +1799,19 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
-      <c r="AD20" s="3">
-        <v>0</v>
-      </c>
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1785,55 +1822,55 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-600</v>
       </c>
       <c r="Q21" s="3">
         <v>-600</v>
       </c>
       <c r="R21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-500</v>
       </c>
       <c r="W21" s="3">
         <v>-500</v>
@@ -1845,7 +1882,7 @@
         <v>-500</v>
       </c>
       <c r="Z21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="AA21" s="3">
         <v>-600</v>
@@ -1854,16 +1891,19 @@
         <v>-600</v>
       </c>
       <c r="AC21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>-500</v>
       </c>
       <c r="AE21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1885,11 +1925,11 @@
       <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1904,28 +1944,28 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>400</v>
       </c>
       <c r="T22" s="3">
         <v>400</v>
       </c>
       <c r="U22" s="3">
+        <v>400</v>
+      </c>
+      <c r="V22" s="3">
         <v>1700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
-      </c>
-      <c r="W22" s="3">
-        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
@@ -1934,25 +1974,28 @@
         <v>200</v>
       </c>
       <c r="Z22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1200</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>200</v>
       </c>
       <c r="AD22" s="3">
         <v>200</v>
       </c>
       <c r="AE22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1963,28 +2006,28 @@
         <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
@@ -1993,55 +2036,58 @@
         <v>-400</v>
       </c>
       <c r="P23" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="Q23" s="3">
         <v>-800</v>
       </c>
       <c r="R23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-700</v>
       </c>
       <c r="Z23" s="3">
         <v>-700</v>
       </c>
       <c r="AA23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2267,11 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2230,28 +2282,28 @@
         <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
@@ -2260,55 +2312,58 @@
         <v>-400</v>
       </c>
       <c r="P26" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="Q26" s="3">
         <v>-800</v>
       </c>
       <c r="R26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-700</v>
       </c>
       <c r="Z26" s="3">
         <v>-700</v>
       </c>
       <c r="AA26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-600</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2319,28 +2374,28 @@
         <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
       <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
@@ -2349,55 +2404,58 @@
         <v>-400</v>
       </c>
       <c r="P27" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>-800</v>
       </c>
       <c r="R27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-700</v>
       </c>
       <c r="Z27" s="3">
         <v>-700</v>
       </c>
       <c r="AA27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2776,11 +2846,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2833,16 +2903,19 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
-      <c r="AD32" s="3">
-        <v>0</v>
-      </c>
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2853,28 +2926,28 @@
         <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
@@ -2883,55 +2956,58 @@
         <v>-400</v>
       </c>
       <c r="P33" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="Q33" s="3">
         <v>-800</v>
       </c>
       <c r="R33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-700</v>
       </c>
       <c r="Z33" s="3">
         <v>-700</v>
       </c>
       <c r="AA33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,8 +3095,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3031,28 +3110,28 @@
         <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
@@ -3061,149 +3140,155 @@
         <v>-400</v>
       </c>
       <c r="P35" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="Q35" s="3">
         <v>-800</v>
       </c>
       <c r="R35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-700</v>
       </c>
       <c r="Z35" s="3">
         <v>-700</v>
       </c>
       <c r="AA35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,13 +3354,14 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -3283,10 +3370,10 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -3298,10 +3385,10 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -3313,52 +3400,55 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
-      </c>
-      <c r="R41" s="3">
-        <v>500</v>
       </c>
       <c r="S41" s="3">
         <v>500</v>
       </c>
       <c r="T41" s="3">
+        <v>500</v>
+      </c>
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>500</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>200</v>
       </c>
       <c r="Z41" s="3">
         <v>200</v>
       </c>
       <c r="AA41" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB41" s="3">
         <v>600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>900</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>100</v>
       </c>
       <c r="AD41" s="3">
         <v>100</v>
       </c>
       <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3654,16 +3753,16 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -3675,17 +3774,17 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
       <c r="U45" s="3">
+        <v>200</v>
+      </c>
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
@@ -3713,25 +3812,28 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -3743,10 +3845,10 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -3755,55 +3857,58 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>200</v>
       </c>
       <c r="Z46" s="3">
         <v>200</v>
       </c>
       <c r="AA46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB46" s="3">
         <v>600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>900</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>200</v>
       </c>
       <c r="AD46" s="3">
         <v>200</v>
       </c>
       <c r="AE46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3906,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3915,7 +4023,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -3924,7 +4032,7 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3966,11 +4074,11 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
         <v>100</v>
       </c>
-      <c r="AB48" s="3">
-        <v>0</v>
-      </c>
       <c r="AC48" s="3">
         <v>0</v>
       </c>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
       </c>
       <c r="J54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
       </c>
       <c r="L54" s="3">
+        <v>300</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>600</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>300</v>
       </c>
       <c r="Z54" s="3">
         <v>300</v>
       </c>
       <c r="AA54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB54" s="3">
         <v>700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1000</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>200</v>
       </c>
       <c r="AD54" s="3">
         <v>200</v>
       </c>
       <c r="AE54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,105 +4710,109 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
         <v>3000</v>
       </c>
       <c r="F57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1900</v>
       </c>
       <c r="F58" s="3">
         <v>1900</v>
@@ -4687,7 +4821,7 @@
         <v>1900</v>
       </c>
       <c r="H58" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="I58" s="3">
         <v>1700</v>
@@ -4696,43 +4830,43 @@
         <v>1700</v>
       </c>
       <c r="K58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1300</v>
       </c>
       <c r="O58" s="3">
         <v>1300</v>
       </c>
       <c r="P58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>900</v>
       </c>
       <c r="T58" s="3">
         <v>900</v>
       </c>
       <c r="U58" s="3">
+        <v>900</v>
+      </c>
+      <c r="V58" s="3">
         <v>700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>900</v>
-      </c>
-      <c r="W58" s="3">
-        <v>600</v>
       </c>
       <c r="X58" s="3">
         <v>600</v>
@@ -4741,7 +4875,7 @@
         <v>600</v>
       </c>
       <c r="Z58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AA58" s="3">
         <v>500</v>
@@ -4750,16 +4884,19 @@
         <v>500</v>
       </c>
       <c r="AC58" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD58" s="3">
         <v>400</v>
-      </c>
-      <c r="AD58" s="3">
-        <v>300</v>
       </c>
       <c r="AE58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4769,8 +4906,8 @@
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -4790,8 +4927,8 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
@@ -4805,8 +4942,8 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4847,97 +4984,103 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2400</v>
-      </c>
-      <c r="X60" s="3">
-        <v>2300</v>
       </c>
       <c r="Y60" s="3">
         <v>2300</v>
       </c>
       <c r="Z60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AA60" s="3">
         <v>2200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5036,11 +5182,11 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -5057,8 +5203,8 @@
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -5072,8 +5218,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4800</v>
       </c>
       <c r="G66" s="3">
         <v>4800</v>
       </c>
       <c r="H66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2400</v>
-      </c>
-      <c r="X66" s="3">
-        <v>2300</v>
       </c>
       <c r="Y66" s="3">
         <v>2300</v>
       </c>
       <c r="Z66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AA66" s="3">
         <v>2200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-125100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-124800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-124500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-124100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-123500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-123100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-122900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-122600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-122300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-121800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-121500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-121200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-120800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-120400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-119600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-118800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-117900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-116900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-115500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-113200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-112200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-111600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-110800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-110100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-109400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-108600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-106800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-105300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-104700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6224,88 +6410,91 @@
         <v>-5000</v>
       </c>
       <c r="E76" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-3800</v>
       </c>
       <c r="M76" s="3">
         <v>-3800</v>
       </c>
       <c r="N76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="O76" s="3">
         <v>-3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-2300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,102 +6582,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6499,28 +6694,28 @@
         <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
@@ -6529,55 +6724,58 @@
         <v>-400</v>
       </c>
       <c r="P81" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="Q81" s="3">
         <v>-800</v>
       </c>
       <c r="R81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-700</v>
       </c>
       <c r="Z81" s="3">
         <v>-700</v>
       </c>
       <c r="AA81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7152,22 +7369,22 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-400</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
@@ -7176,7 +7393,7 @@
         <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -7185,25 +7402,25 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-400</v>
       </c>
       <c r="W89" s="3">
         <v>-400</v>
@@ -7212,28 +7429,31 @@
         <v>-400</v>
       </c>
       <c r="Y89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-600</v>
       </c>
       <c r="AB89" s="3">
         <v>-600</v>
       </c>
       <c r="AC89" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="AD89" s="3">
         <v>-200</v>
       </c>
       <c r="AE89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AF89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
       </c>
       <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
-      <c r="AD100" s="3">
-        <v>0</v>
-      </c>
       <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,58 +8437,61 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-200</v>
       </c>
       <c r="Q102" s="3">
         <v>-200</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>-200</v>
@@ -8248,33 +8500,36 @@
         <v>-200</v>
       </c>
       <c r="V102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W102" s="3">
         <v>900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>700</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>100</v>
       </c>
     </row>
